--- a/orders_monitoring_2023_04_13_14_12_20361946.xlsx
+++ b/orders_monitoring_2023_04_13_14_12_20361946.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cmder\git\py-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B41331-FCFE-40DC-96E5-117D77F7DA41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1080" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29940" yWindow="1080" windowWidth="19440" windowHeight="14880"/>
   </bookViews>
   <sheets>
     <sheet name="Отчет" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="92">
   <si>
     <t>Мониторинг заявок: Питающиеся</t>
   </si>
@@ -411,19 +410,13 @@
     <t xml:space="preserve">Питающихся: 5
 Комплекты:
 - Обед 1-4 кл. (льготный/платный): 5
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Питающихся: 66
-Комплекты:
-- Завтрак 1-4 класс: 66
 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1201,11 +1194,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,13 +1233,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
